--- a/AFNET Project/Equipment-Activity-Form-export.xlsx
+++ b/AFNET Project/Equipment-Activity-Form-export.xlsx
@@ -1,19 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Version Control\AFENET\Documentation\AFNET Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A7E43-EA6B-44F3-8743-DFB60FB84DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="warnings" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::English</t>
+  </si>
+  <si>
+    <t>hint::English</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Equipment_ID</t>
+  </si>
+  <si>
+    <t>Equipment ID</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>engineering-service-provider</t>
+  </si>
+  <si>
+    <t>Engineering Service Provider</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>most_recent_calibration</t>
+  </si>
+  <si>
+    <t>Most Recent Calibration</t>
+  </si>
+  <si>
+    <t>most_recent_maintenance</t>
+  </si>
+  <si>
+    <t>Most Recent Maintenance</t>
+  </si>
+  <si>
+    <t>select_one choices_retirement_flag</t>
+  </si>
+  <si>
+    <t>retirement_flag</t>
+  </si>
+  <si>
+    <t>Retirement Flag</t>
+  </si>
+  <si>
+    <t>Mark Yes to indicate this piece of equipment is no longer in use</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>list name</t>
+  </si>
+  <si>
+    <t>choices_retirement_flag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>public_key</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Equipment Activity Form</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>build_Equipment-Activity-Form_1572919467</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,381 +503,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>type</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>label::English</v>
-      </c>
-      <c r="D1" t="str">
-        <v>required</v>
-      </c>
-      <c r="E1" t="str">
-        <v>appearance</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>text</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Equipment_ID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Equipment ID</v>
-      </c>
-      <c r="D2" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>select_one choices_calib_engineer_nm</v>
-      </c>
-      <c r="B3" t="str">
-        <v>calib_engineer_nm</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Calibration Engineer Name</v>
-      </c>
-      <c r="D3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E3" t="str">
-        <v>minimal</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>select_one choices_calib_engineer_post</v>
-      </c>
-      <c r="B4" t="str">
-        <v>calib_engineer_post</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Calibration Engineer Post</v>
-      </c>
-      <c r="D4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E4" t="str">
-        <v>minimal</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>date</v>
-      </c>
-      <c r="B5" t="str">
-        <v>most_recent_calibration</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Most Recent Calibration</v>
-      </c>
-      <c r="D5" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>select_one choices_maintenance_engineer_nm</v>
-      </c>
-      <c r="B6" t="str">
-        <v>maintenance_engineer_nm</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Maintenance Engineer Name</v>
-      </c>
-      <c r="D6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>minimal</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>select_one choices_maintenance_engineer_post</v>
-      </c>
-      <c r="B7" t="str">
-        <v>maintenance_engineer_post</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Maintenance Engineer Post</v>
-      </c>
-      <c r="D7" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E7" t="str">
-        <v>minimal</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>date</v>
-      </c>
-      <c r="B8" t="str">
-        <v>most_recent_maintenance</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Most Recent Maintenance</v>
-      </c>
-      <c r="D8" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>select_one choices_retirement_flag</v>
-      </c>
-      <c r="B9" t="str">
-        <v>retirement_flag</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Retirement Flag</v>
-      </c>
-      <c r="D9" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E9" t="str">
-        <v>minimal</v>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>list name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>label::English</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>choices_calib_engineer_nm</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Tech1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Tech1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>choices_calib_engineer_nm</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Tech2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Tech2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>choices_calib_engineer_nm</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Tech3</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Tech3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>choices_calib_engineer_post</v>
-      </c>
-      <c r="B5" t="str">
-        <v>post_1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>post_1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>choices_calib_engineer_post</v>
-      </c>
-      <c r="B6" t="str">
-        <v>post_2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>post_2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>choices_calib_engineer_post</v>
-      </c>
-      <c r="B7" t="str">
-        <v>post_3</v>
-      </c>
-      <c r="C7" t="str">
-        <v>post_3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>choices_maintenance_engineer_nm</v>
-      </c>
-      <c r="B8" t="str">
-        <v>tech1</v>
-      </c>
-      <c r="C8" t="str">
-        <v>tech1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>choices_maintenance_engineer_nm</v>
-      </c>
-      <c r="B9" t="str">
-        <v>tech2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>tech2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>choices_maintenance_engineer_nm</v>
-      </c>
-      <c r="B10" t="str">
-        <v>tech3</v>
-      </c>
-      <c r="C10" t="str">
-        <v>tech3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>choices_maintenance_engineer_post</v>
-      </c>
-      <c r="B11" t="str">
-        <v>post_1</v>
-      </c>
-      <c r="C11" t="str">
-        <v>post_1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>choices_maintenance_engineer_post</v>
-      </c>
-      <c r="B12" t="str">
-        <v>post_2</v>
-      </c>
-      <c r="C12" t="str">
-        <v>post_2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>choices_maintenance_engineer_post</v>
-      </c>
-      <c r="B13" t="str">
-        <v>post_3</v>
-      </c>
-      <c r="C13" t="str">
-        <v>post_3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>choices_retirement_flag</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Yes</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>choices_retirement_flag</v>
-      </c>
-      <c r="B15" t="str">
-        <v>No</v>
-      </c>
-      <c r="C15" t="str">
-        <v>No</v>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>form_title</v>
-      </c>
-      <c r="B1" t="str">
-        <v>form_id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>public_key</v>
-      </c>
-      <c r="D1" t="str">
-        <v>submission_url</v>
-      </c>
-      <c r="E1" t="str">
-        <v>instance_name</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Equipment Activity Form</v>
-      </c>
-      <c r="B2" t="str">
-        <v>build_Equipment-Activity-Form_1572919467</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>message</v>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>